--- a/preprocessing_scripts/instrument.xlsx
+++ b/preprocessing_scripts/instrument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshahindupur/Downloads/RA_Online_Instrument/preprocessing_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E580BF4-5D81-5346-A01A-D103B7D0A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA50887-8748-6B44-AF77-53F18C51F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,9 +478,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -535,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -557,7 +574,7 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/preprocessing_scripts/instrument.xlsx
+++ b/preprocessing_scripts/instrument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshahindupur/Downloads/RA_Online_Instrument/preprocessing_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA50887-8748-6B44-AF77-53F18C51F301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C003550-96D8-6C46-BFD5-507DD347725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>prolific_id</t>
   </si>
@@ -76,40 +76,127 @@
     <t>responses.question_10</t>
   </si>
   <si>
-    <t>123</t>
+    <t>responses.question_question1</t>
+  </si>
+  <si>
+    <t>responses.question_question2</t>
+  </si>
+  <si>
+    <t>responses.question_question3</t>
+  </si>
+  <si>
+    <t>responses.question_question4</t>
+  </si>
+  <si>
+    <t>responses.question_question5</t>
+  </si>
+  <si>
+    <t>responses.question_question6</t>
+  </si>
+  <si>
+    <t>responses.question_question7</t>
+  </si>
+  <si>
+    <t>responses.question_question8</t>
+  </si>
+  <si>
+    <t>responses.question_question9</t>
+  </si>
+  <si>
+    <t>responses.question_question10</t>
+  </si>
+  <si>
+    <t>responses.question_question11</t>
+  </si>
+  <si>
+    <t>r4r4r</t>
   </si>
   <si>
     <t>First-Consent</t>
   </si>
   <si>
-    <t>66b2e0fa0b5684fe460b641f</t>
-  </si>
-  <si>
-    <t>2024-08-07T02:50:34.315Z</t>
+    <t>66bab2026d6168e57c918a2e</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:08:18.367Z</t>
+  </si>
+  <si>
+    <t>Financial-Literacy</t>
+  </si>
+  <si>
+    <t>66bab20c6d6168e57c918a30</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:08:28.737Z</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option3</t>
   </si>
   <si>
     <t>Paper-Folding-Test-1</t>
   </si>
   <si>
-    <t>66b2e1279c0009d39f467edb</t>
-  </si>
-  <si>
-    <t>2024-08-07T02:51:19.842Z</t>
+    <t>66bab2cebe2f8ac6f28f7798</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:11:42.015Z</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Paper-Folding-Test-2</t>
   </si>
   <si>
-    <t>66b2e13a9c0009d39f467edd</t>
-  </si>
-  <si>
-    <t>2024-08-07T02:51:38.259Z</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>66bab317be2f8ac6f28f779a</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:12:55.876Z</t>
+  </si>
+  <si>
+    <t>Sample-Rotation-Test</t>
+  </si>
+  <si>
+    <t>66bab336be2f8ac6f28f779c</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:13:26.178Z</t>
+  </si>
+  <si>
+    <t>same,different,same,different,same,different,same,different</t>
+  </si>
+  <si>
+    <t>Rotation-Test-1</t>
+  </si>
+  <si>
+    <t>66bab3e6be2f8ac6f28f779e</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:16:22.333Z</t>
+  </si>
+  <si>
+    <t>Rotation-Test-2</t>
+  </si>
+  <si>
+    <t>66bab4a5be2f8ac6f28f77a0</t>
+  </si>
+  <si>
+    <t>2024-08-13T01:19:33.063Z</t>
+  </si>
+  <si>
+    <t>same,different,same,same,different,different,same,different</t>
   </si>
 </sst>
 </file>
@@ -128,7 +215,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,13 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,27 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="50.33203125" customWidth="1"/>
+    <col min="20" max="20" width="61.1640625" customWidth="1"/>
+    <col min="21" max="21" width="48.6640625" customWidth="1"/>
+    <col min="22" max="22" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,13 +626,46 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -566,128 +674,310 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.8780000000000001</v>
+        <v>18.18</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>17.908999999999999</v>
+        <v>10.132</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15.663</v>
+        <v>190.61099999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>19.344999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>30.04</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>168.36099999999999</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>184.178</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/preprocessing_scripts/instrument.xlsx
+++ b/preprocessing_scripts/instrument.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshahindupur/Downloads/RA_Online_Instrument/preprocessing_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C003550-96D8-6C46-BFD5-507DD347725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6808C477-740F-3541-B8F8-9CF13F4275B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>prolific_id</t>
   </si>
@@ -34,169 +34,550 @@
     <t>consent</t>
   </si>
   <si>
+    <t>chart_number</t>
+  </si>
+  <si>
+    <t>graph_question_durations</t>
+  </si>
+  <si>
+    <t>per_graph_durations</t>
+  </si>
+  <si>
     <t>time_spent</t>
   </si>
   <si>
+    <t>last_visited_test_name</t>
+  </si>
+  <si>
+    <t>current_visit_test_name</t>
+  </si>
+  <si>
+    <t>next_visit_test_name</t>
+  </si>
+  <si>
     <t>__v</t>
   </si>
   <si>
     <t>_id.$oid</t>
   </si>
   <si>
-    <t>completed_at.$date</t>
-  </si>
-  <si>
-    <t>responses.question_1</t>
-  </si>
-  <si>
-    <t>responses.question_2</t>
-  </si>
-  <si>
-    <t>responses.question_3</t>
-  </si>
-  <si>
-    <t>responses.question_4</t>
-  </si>
-  <si>
-    <t>responses.question_5</t>
-  </si>
-  <si>
-    <t>responses.question_6</t>
-  </si>
-  <si>
-    <t>responses.question_7</t>
-  </si>
-  <si>
-    <t>responses.question_8</t>
-  </si>
-  <si>
-    <t>responses.question_9</t>
-  </si>
-  <si>
-    <t>responses.question_10</t>
-  </si>
-  <si>
-    <t>responses.question_question1</t>
-  </si>
-  <si>
-    <t>responses.question_question2</t>
-  </si>
-  <si>
-    <t>responses.question_question3</t>
-  </si>
-  <si>
-    <t>responses.question_question4</t>
-  </si>
-  <si>
-    <t>responses.question_question5</t>
-  </si>
-  <si>
-    <t>responses.question_question6</t>
-  </si>
-  <si>
-    <t>responses.question_question7</t>
-  </si>
-  <si>
-    <t>responses.question_question8</t>
-  </si>
-  <si>
-    <t>responses.question_question9</t>
-  </si>
-  <si>
-    <t>responses.question_question10</t>
-  </si>
-  <si>
-    <t>responses.question_question11</t>
-  </si>
-  <si>
-    <t>r4r4r</t>
+    <t>started_at.$date</t>
+  </si>
+  <si>
+    <t>ended_at.$date</t>
+  </si>
+  <si>
+    <t>time_user_entered_current_page.$date</t>
+  </si>
+  <si>
+    <t>responses.FL_question_1</t>
+  </si>
+  <si>
+    <t>responses.FL_question_2</t>
+  </si>
+  <si>
+    <t>responses.FL_question_3</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_1</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_2</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_3</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_4</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_5</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_6</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_7</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_8</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_9</t>
+  </si>
+  <si>
+    <t>responses.PFT1_question_10</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_1</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_2</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_3</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_4</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_5</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_6</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_7</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_8</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_9</t>
+  </si>
+  <si>
+    <t>responses.PFT2_question_10</t>
+  </si>
+  <si>
+    <t>responses.SRT_question1</t>
+  </si>
+  <si>
+    <t>responses.SRT_question2</t>
+  </si>
+  <si>
+    <t>responses.RT1_question1</t>
+  </si>
+  <si>
+    <t>responses.RT1_question2</t>
+  </si>
+  <si>
+    <t>responses.RT1_question3</t>
+  </si>
+  <si>
+    <t>responses.RT1_question4</t>
+  </si>
+  <si>
+    <t>responses.RT1_question5</t>
+  </si>
+  <si>
+    <t>responses.RT1_question6</t>
+  </si>
+  <si>
+    <t>responses.RT1_question7</t>
+  </si>
+  <si>
+    <t>responses.RT1_question8</t>
+  </si>
+  <si>
+    <t>responses.RT1_question9</t>
+  </si>
+  <si>
+    <t>responses.RT1_question10</t>
+  </si>
+  <si>
+    <t>responses.RT2_question1</t>
+  </si>
+  <si>
+    <t>responses.RT2_question2</t>
+  </si>
+  <si>
+    <t>responses.RT2_question3</t>
+  </si>
+  <si>
+    <t>responses.RT2_question4</t>
+  </si>
+  <si>
+    <t>responses.RT2_question5</t>
+  </si>
+  <si>
+    <t>responses.RT2_question6</t>
+  </si>
+  <si>
+    <t>responses.RT2_question7</t>
+  </si>
+  <si>
+    <t>responses.RT2_question8</t>
+  </si>
+  <si>
+    <t>responses.RT2_question9</t>
+  </si>
+  <si>
+    <t>responses.RT2_question10</t>
+  </si>
+  <si>
+    <t>responses.CBG_question</t>
+  </si>
+  <si>
+    <t>responses.SCD_question1</t>
+  </si>
+  <si>
+    <t>responses.SCD_question2</t>
+  </si>
+  <si>
+    <t>responses.SCD_question3</t>
+  </si>
+  <si>
+    <t>responses.SCD_question4</t>
+  </si>
+  <si>
+    <t>responses.SCD_question5</t>
+  </si>
+  <si>
+    <t>responses.SCD_question6</t>
+  </si>
+  <si>
+    <t>responses.SCD_question7</t>
+  </si>
+  <si>
+    <t>responses.SCD_question8</t>
+  </si>
+  <si>
+    <t>responses.SCD_question9</t>
+  </si>
+  <si>
+    <t>responses.SCD_question10</t>
+  </si>
+  <si>
+    <t>responses.SCD_question11</t>
+  </si>
+  <si>
+    <t>responses.SCD_question12</t>
+  </si>
+  <si>
+    <t>responses.SCD_question13</t>
+  </si>
+  <si>
+    <t>responses.SCD_question14</t>
+  </si>
+  <si>
+    <t>responses.SCD_question15</t>
+  </si>
+  <si>
+    <t>responses.SCD_question16</t>
+  </si>
+  <si>
+    <t>responses.SCD_question17</t>
+  </si>
+  <si>
+    <t>responses.SCD_question18</t>
+  </si>
+  <si>
+    <t>responses.SCD_question19</t>
+  </si>
+  <si>
+    <t>responses.SCD_question20</t>
+  </si>
+  <si>
+    <t>responses.SCD_question21</t>
+  </si>
+  <si>
+    <t>responses.SCD_question22</t>
+  </si>
+  <si>
+    <t>responses.SCD_question23</t>
+  </si>
+  <si>
+    <t>responses.SCD_question24</t>
+  </si>
+  <si>
+    <t>responses.mentalDemand</t>
+  </si>
+  <si>
+    <t>responses.physicalDemand</t>
+  </si>
+  <si>
+    <t>responses.temporalDemand</t>
+  </si>
+  <si>
+    <t>responses.performance</t>
+  </si>
+  <si>
+    <t>responses.effort</t>
+  </si>
+  <si>
+    <t>responses.frustration</t>
+  </si>
+  <si>
+    <t>responses.age</t>
+  </si>
+  <si>
+    <t>responses.education-level</t>
+  </si>
+  <si>
+    <t>responses.work-experience</t>
+  </si>
+  <si>
+    <t>responses.management-experience</t>
+  </si>
+  <si>
+    <t>responses.employment-sector</t>
+  </si>
+  <si>
+    <t>erfdwtfdsetrfdsefdrffd44</t>
   </si>
   <si>
     <t>First-Consent</t>
   </si>
   <si>
-    <t>66bab2026d6168e57c918a2e</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:08:18.367Z</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/ask-consent-again</t>
+  </si>
+  <si>
+    <t>66d60f5eda5e86faec693075</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:17:40.309Z</t>
+  </si>
+  <si>
+    <t>Second-Consent</t>
+  </si>
+  <si>
+    <t>/exit-survey-page</t>
+  </si>
+  <si>
+    <t>66d60f61da5e86faec693077</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:17:50.770Z</t>
+  </si>
+  <si>
+    <t>Exit-Survey</t>
+  </si>
+  <si>
+    <t>66d60f61da5e86faec693079</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:17:53.640Z</t>
+  </si>
+  <si>
+    <t>thiisnotatallweird******</t>
+  </si>
+  <si>
+    <t>/financial-literacy</t>
+  </si>
+  <si>
+    <t>66d60f9dda5e86faec69307c</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:18:37.578Z</t>
   </si>
   <si>
     <t>Financial-Literacy</t>
   </si>
   <si>
-    <t>66bab20c6d6168e57c918a30</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:08:28.737Z</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
+    <t>/paper-folding-test-sample-question</t>
+  </si>
+  <si>
+    <t>66d60fa3da5e86faec69307e</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:18:54.104Z</t>
+  </si>
+  <si>
+    <t>less-than-$102</t>
+  </si>
+  <si>
+    <t>more-than-today</t>
+  </si>
+  <si>
+    <t>do-not-know</t>
+  </si>
+  <si>
+    <t>Paper-Folding-Test-Sample-Question</t>
+  </si>
+  <si>
+    <t>/paper-folding-test-part-1</t>
+  </si>
+  <si>
+    <t>66d60fb1da5e86faec693081</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:19:00.043Z</t>
   </si>
   <si>
     <t>Paper-Folding-Test-1</t>
   </si>
   <si>
-    <t>66bab2cebe2f8ac6f28f7798</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:11:42.015Z</t>
+    <t>/sample-paper-folding-test</t>
+  </si>
+  <si>
+    <t>/paper-folding-test-part-2</t>
+  </si>
+  <si>
+    <t>66d60fb5da5e86faec693083</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:19:13.532Z</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Paper-Folding-Test-2</t>
+  </si>
+  <si>
+    <t>/sample-rotation-test</t>
+  </si>
+  <si>
+    <t>66d60fceda5e86faec693086</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:19:18.027Z</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Paper-Folding-Test-2</t>
-  </si>
-  <si>
-    <t>66bab317be2f8ac6f28f779a</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:12:55.876Z</t>
-  </si>
-  <si>
     <t>Sample-Rotation-Test</t>
   </si>
   <si>
-    <t>66bab336be2f8ac6f28f779c</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:13:26.178Z</t>
-  </si>
-  <si>
-    <t>same,different,same,different,same,different,same,different</t>
+    <t>/rotation-test-part-1</t>
+  </si>
+  <si>
+    <t>66d60fd7da5e86faec693088</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:19:42.790Z</t>
+  </si>
+  <si>
+    <t>,,,same,,,,</t>
+  </si>
+  <si>
+    <t>,,,,same,,,</t>
   </si>
   <si>
     <t>Rotation-Test-1</t>
   </si>
   <si>
-    <t>66bab3e6be2f8ac6f28f779e</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:16:22.333Z</t>
+    <t>/rotation-test-part-2</t>
+  </si>
+  <si>
+    <t>66d60fefda5e86faec69308b</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:19:51.215Z</t>
   </si>
   <si>
     <t>Rotation-Test-2</t>
   </si>
   <si>
-    <t>66bab4a5be2f8ac6f28f77a0</t>
-  </si>
-  <si>
-    <t>2024-08-13T01:19:33.063Z</t>
-  </si>
-  <si>
-    <t>same,different,same,same,different,different,same,different</t>
+    <t>/creative-bricks-game</t>
+  </si>
+  <si>
+    <t>66d61039da5e86faec693092</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:21:24.784Z</t>
+  </si>
+  <si>
+    <t>same,,,,,,,,</t>
+  </si>
+  <si>
+    <t>Creative-Bricks-Game</t>
+  </si>
+  <si>
+    <t>/proceed-to-dashboard</t>
+  </si>
+  <si>
+    <t>66d61097da5e86faec693095</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:21:29.888Z</t>
+  </si>
+  <si>
+    <t>edswrtgvccdsertghbvvcderyhgbvcdsghbvvcdf xzv. cxcccccccxcxcxcxc</t>
+  </si>
+  <si>
+    <t>Proceed-To-Dashboard</t>
+  </si>
+  <si>
+    <t>/dashboard-router</t>
+  </si>
+  <si>
+    <t>66d61099da5e86faec693097</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:23:03.485Z</t>
+  </si>
+  <si>
+    <t>Dashboard-Router</t>
+  </si>
+  <si>
+    <t>66d61099da5e86faec69309f</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:23:05.277Z</t>
+  </si>
+  <si>
+    <t>Structural-Col-Dashboard</t>
+  </si>
+  <si>
+    <t>/structure-col-dashboard</t>
+  </si>
+  <si>
+    <t>/feedback-questions</t>
+  </si>
+  <si>
+    <t>66d610a8da5e86faec6930a3</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:23:05.645Z</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Feedback-Questions</t>
+  </si>
+  <si>
+    <t>/demographic-questions</t>
+  </si>
+  <si>
+    <t>66d610aeda5e86faec6930a5</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:23:21.095Z</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Demographics-Questions</t>
+  </si>
+  <si>
+    <t>66d610d0da5e86faec6930a7</t>
+  </si>
+  <si>
+    <t>2024-09-02T19:23:26.553Z</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>High school diploma</t>
+  </si>
+  <si>
+    <t>Less than one</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -215,6 +596,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,19 +941,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:CS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CK15" sqref="CK15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="50.33203125" customWidth="1"/>
-    <col min="20" max="20" width="61.1640625" customWidth="1"/>
-    <col min="21" max="21" width="48.6640625" customWidth="1"/>
-    <col min="22" max="22" width="51.1640625" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="32.6640625" customWidth="1"/>
+    <col min="29" max="29" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,325 +1042,1095 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>10.249000000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>18.18</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10.132</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>190.61099999999999</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>19.344999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <v>16.373999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>30.04</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" t="s">
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>168.36099999999999</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>13.362</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>184.178</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>24.547999999999998</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>24.478999999999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>93.451999999999998</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>1.679</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>163</v>
+      </c>
+      <c r="P15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:97" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:97" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>34.128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>180</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>181</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>182</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>183</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>184</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
